--- a/Sporting.csv.xlsx
+++ b/Sporting.csv.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fnac\Documents\GitHub\projetotese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599524CE-76EC-43D8-9C9E-CCBE5C54FAA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F7FF7-4729-4A7A-A482-8271382C6A66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB3D1684-C08C-4D33-B889-3837B0A520DC}"/>
+    <workbookView xWindow="3444" yWindow="0" windowWidth="9792" windowHeight="12360" activeTab="1" xr2:uid="{EB3D1684-C08C-4D33-B889-3837B0A520DC}"/>
   </bookViews>
   <sheets>
     <sheet name="FichaJogo" sheetId="1" r:id="rId1"/>
+    <sheet name="Eventos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -106,14 +107,64 @@
   </si>
   <si>
     <t>Suplente</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>TipoEvento</t>
+  </si>
+  <si>
+    <t>Jogador1</t>
+  </si>
+  <si>
+    <t>Jogador2</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Golo</t>
+  </si>
+  <si>
+    <t>Penalti</t>
+  </si>
+  <si>
+    <t>alexandrefernandes</t>
+  </si>
+  <si>
+    <t>nenhum</t>
+  </si>
+  <si>
+    <t>zona2</t>
+  </si>
+  <si>
+    <t>Sanção</t>
+  </si>
+  <si>
+    <t>Amarelo</t>
+  </si>
+  <si>
+    <t>claudio silva</t>
+  </si>
+  <si>
+    <t>faltaefetuada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,9 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5C181-A604-49EE-A010-919B713C3AE4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -765,4 +817,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AEBBD6-6988-4F9B-9E6D-0985875AE341}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>